--- a/bots/crawl_ch/output/bread_coop_2022-11-30.xlsx
+++ b/bots/crawl_ch/output/bread_coop_2022-11-30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O409"/>
+  <dimension ref="A1:O408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -711,7 +711,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Prix Garantie Toast 2.05 Schweizer Franken</t>
+          <t>Prix Garantie Toast - Online kein Bestand 2.05 Schweizer Franken</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Ölz Vollkorn Sandwich Toast Soft 4.10 Schweizer Franken</t>
+          <t>Ölz Vollkorn Sandwich Toast Soft - Online kein Bestand 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1155,7 +1155,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1723,7 +1723,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1792,7 +1792,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1934,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2003,7 +2003,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2287,7 +2287,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2356,7 +2356,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2498,7 +2498,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2705,7 +2705,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2774,7 +2774,7 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2837,7 +2837,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>Betty Bossi Frischback Buttergipfel IP-Suisse 2.60 Schweizer Franken</t>
+          <t>Betty Bossi Frischback Buttergipfel IP-Suisse - Online kein Bestand 2.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2920,7 +2920,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -2989,7 +2989,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3204,7 +3204,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3634,7 +3634,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3703,7 +3703,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3918,7 +3918,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -3991,7 +3991,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4210,7 +4210,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4283,7 +4283,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4571,7 +4571,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4640,7 +4640,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4782,7 +4782,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4855,7 +4855,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4924,7 +4924,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5070,7 +5070,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5143,7 +5143,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5216,7 +5216,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5358,7 +5358,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5431,7 +5431,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5500,7 +5500,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5573,7 +5573,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5642,7 +5642,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5711,7 +5711,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5784,7 +5784,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5857,7 +5857,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5926,7 +5926,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -5995,7 +5995,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6064,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6210,7 +6210,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6283,7 +6283,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6425,7 +6425,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6498,7 +6498,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6567,7 +6567,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6640,7 +6640,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6709,7 +6709,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6778,7 +6778,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6847,7 +6847,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6920,7 +6920,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -6989,7 +6989,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7062,7 +7062,7 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7135,7 +7135,7 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7204,7 +7204,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7277,7 +7277,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7346,7 +7346,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7488,7 +7488,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7630,7 +7630,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7695,7 +7695,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7841,7 +7841,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7910,7 +7910,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -7983,7 +7983,7 @@
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8056,7 +8056,7 @@
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8125,7 +8125,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8267,7 +8267,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8336,7 +8336,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8478,7 +8478,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8551,7 +8551,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8620,7 +8620,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8762,7 +8762,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8835,7 +8835,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8908,7 +8908,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -8977,7 +8977,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9050,7 +9050,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9119,7 +9119,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9192,7 +9192,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9330,7 +9330,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9403,7 +9403,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9476,7 +9476,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9545,7 +9545,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9618,7 +9618,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9687,7 +9687,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9756,7 +9756,7 @@
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9829,7 +9829,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9898,7 +9898,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -9971,7 +9971,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10044,7 +10044,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10117,7 +10117,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10186,7 +10186,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10255,7 +10255,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10324,7 +10324,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10397,7 +10397,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10470,7 +10470,7 @@
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10539,7 +10539,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10608,7 +10608,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10750,7 +10750,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10823,7 +10823,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10892,7 +10892,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11038,7 +11038,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11111,7 +11111,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11180,7 +11180,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11249,7 +11249,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11318,7 +11318,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11460,7 +11460,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11533,7 +11533,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11606,7 +11606,7 @@
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11675,7 +11675,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11744,7 +11744,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11813,7 +11813,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11882,7 +11882,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -11955,7 +11955,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12024,7 +12024,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12166,7 +12166,7 @@
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12235,7 +12235,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12308,7 +12308,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12377,7 +12377,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12446,7 +12446,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12519,7 +12519,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12588,7 +12588,7 @@
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12661,7 +12661,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12730,7 +12730,7 @@
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12803,7 +12803,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12876,7 +12876,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -12945,7 +12945,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13014,7 +13014,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13087,7 +13087,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13160,7 +13160,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13229,7 +13229,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13302,7 +13302,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13375,7 +13375,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13444,7 +13444,7 @@
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13513,7 +13513,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13586,7 +13586,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13659,7 +13659,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13728,7 +13728,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13801,7 +13801,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13870,7 +13870,7 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -13943,7 +13943,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14012,7 +14012,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14085,7 +14085,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14158,7 +14158,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14231,7 +14231,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14300,7 +14300,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14373,7 +14373,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14442,7 +14442,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14511,7 +14511,7 @@
       <c r="N198" t="inlineStr"/>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14580,7 +14580,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14726,7 +14726,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14864,7 +14864,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -14937,7 +14937,7 @@
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15079,7 +15079,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15148,7 +15148,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15217,7 +15217,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15288,7 +15288,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15357,7 +15357,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15426,7 +15426,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15495,7 +15495,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15568,7 +15568,7 @@
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15641,7 +15641,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15787,7 +15787,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15860,7 +15860,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -15933,7 +15933,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16002,7 +16002,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16071,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16140,7 +16140,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16209,7 +16209,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16282,7 +16282,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16351,7 +16351,7 @@
       <c r="N224" t="inlineStr"/>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16424,7 +16424,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16497,45 +16497,45 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>4864690</t>
+          <t>6629227</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
+          <t>Old el Paso Tortilla Pockets 8 Stück</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E227" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>Leisi</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>1.41/100g</t>
+          <t>2.67/100g</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -16555,60 +16555,56 @@
       </c>
       <c r="L227" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M227" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N227" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Old el Paso Tortilla Pockets 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>6629227</t>
+          <t>6989304</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück</t>
+          <t>JaMaDu Jungle Cracker Randen</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-tortilla-pockets-8-stueck/p/6629227</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>2.67/100g</t>
+          <t>2.46/100g</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
@@ -16618,7 +16614,7 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
@@ -16628,39 +16624,39 @@
       </c>
       <c r="L228" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
         </is>
       </c>
       <c r="M228" t="inlineStr">
         <is>
-          <t>Old el Paso Tortilla Pockets 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>6989304</t>
+          <t>6338746</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen</t>
+          <t>Country Cracker Sesam Stange</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/suess/jamadu-jungle-cracker-randen/p/6989304</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E229" t="n">
         <v>5</v>
@@ -16672,12 +16668,12 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>2.46/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
@@ -16687,7 +16683,7 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>2.46</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
@@ -16697,56 +16693,56 @@
       </c>
       <c r="L229" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'suess']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M229" t="inlineStr">
         <is>
-          <t>JaMaDu Jungle Cracker Randen 3.20 Schweizer Franken</t>
+          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>6338746</t>
+          <t>4864690</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange</t>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-sesam-stange/p/6338746</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-blaetterteig-30-fett-rund-ausgewallt-32cm/p/4864690</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="E230" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>1.41/100g</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
@@ -16756,7 +16752,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -16766,18 +16762,22 @@
       </c>
       <c r="L230" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M230" t="inlineStr">
         <is>
-          <t>Country Cracker Sesam Stange 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N230" t="inlineStr"/>
+          <t>Leisi Blätterteig -30% Fett rund ausgewallt Ø32cm 3.25 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16846,7 +16846,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -16915,45 +16915,45 @@
       <c r="N232" t="inlineStr"/>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>6364156</t>
+          <t>3360446</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel</t>
+          <t>Old El Paso Maistortillas 8 Stück</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="E233" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>1.56/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
@@ -16963,7 +16963,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -16973,56 +16973,56 @@
       </c>
       <c r="L233" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M233" t="inlineStr">
         <is>
-          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
+          <t>Old El Paso Maistortillas 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>3360446</t>
+          <t>6364156</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück</t>
+          <t>Pasquier Pains facon Bretzel</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-maistortillas-8-stueck/p/3360446</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/pasquier-pains-facon-bretzel/p/6364156</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="E234" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.56/100g</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
@@ -17032,7 +17032,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17042,18 +17042,18 @@
       </c>
       <c r="L234" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote']</t>
         </is>
       </c>
       <c r="M234" t="inlineStr">
         <is>
-          <t>Old El Paso Maistortillas 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
+          <t>Pasquier Pains facon Bretzel 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17120,7 +17120,7 @@
       <c r="N235" t="inlineStr"/>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17189,7 +17189,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17258,7 +17258,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17327,7 +17327,7 @@
       <c r="N238" t="inlineStr"/>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17396,7 +17396,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17465,7 +17465,7 @@
       <c r="N240" t="inlineStr"/>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17538,7 +17538,7 @@
       </c>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17607,7 +17607,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17680,7 +17680,7 @@
       </c>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17743,13 +17743,13 @@
       </c>
       <c r="M244" t="inlineStr">
         <is>
-          <t>Pasquier Schokobrötchen 8St 4.60 Schweizer Franken</t>
+          <t>Pasquier Schokobrötchen 8St - Online kein Bestand 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N244" t="inlineStr"/>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17818,7 +17818,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -17964,7 +17964,7 @@
       </c>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18033,7 +18033,7 @@
       <c r="N248" t="inlineStr"/>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18106,7 +18106,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18179,7 +18179,7 @@
       </c>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18252,7 +18252,7 @@
       </c>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18398,7 +18398,7 @@
       </c>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18465,7 +18465,7 @@
       <c r="N254" t="inlineStr"/>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18534,45 +18534,45 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>5989712</t>
+          <t>6605568</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei</t>
+          <t>Prix Garantie Mini Muffins Choco</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E256" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>WASA</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>1.63/100g</t>
+          <t>1.20/100g</t>
         </is>
       </c>
       <c r="I256" t="inlineStr">
@@ -18582,7 +18582,7 @@
       </c>
       <c r="J256" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="K256" t="inlineStr">
@@ -18592,56 +18592,56 @@
       </c>
       <c r="L256" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M256" t="inlineStr">
         <is>
-          <t>Wasa Knäckebrot glutenfrei 3.90 Schweizer Franken</t>
+          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
         </is>
       </c>
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>6605568</t>
+          <t>5989712</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco</t>
+          <t>Wasa Knäckebrot glutenfrei</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/prix-garantie-mini-muffins-choco/p/6605568</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/wasa-knaeckebrot-glutenfrei/p/5989712</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E257" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>WASA</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>1.20/100g</t>
+          <t>1.63/100g</t>
         </is>
       </c>
       <c r="I257" t="inlineStr">
@@ -18651,7 +18651,7 @@
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="K257" t="inlineStr">
@@ -18661,18 +18661,18 @@
       </c>
       <c r="L257" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>Prix Garantie Mini Muffins Choco 2.70 Schweizer Franken</t>
+          <t>Wasa Knäckebrot glutenfrei 3.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="N257" t="inlineStr"/>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18745,7 +18745,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18814,7 +18814,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18883,7 +18883,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -18952,7 +18952,7 @@
       <c r="N261" t="inlineStr"/>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19021,7 +19021,7 @@
       <c r="N262" t="inlineStr"/>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19090,7 +19090,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19161,7 +19161,7 @@
       </c>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19307,7 +19307,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19378,7 +19378,7 @@
       </c>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19451,7 +19451,7 @@
       </c>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19520,7 +19520,7 @@
       <c r="N269" t="inlineStr"/>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19593,7 +19593,7 @@
       </c>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19666,7 +19666,7 @@
       </c>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19735,7 +19735,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -19808,43 +19808,45 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>6986883</t>
+          <t>3715589</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig</t>
+          <t>Buitoni Pizzateig rund Extra</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>18</v>
+      </c>
       <c r="E274" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>2.50</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>2.08/100g</t>
+          <t>1.17/100g</t>
         </is>
       </c>
       <c r="I274" t="inlineStr">
@@ -19854,7 +19856,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -19864,60 +19866,60 @@
       </c>
       <c r="L274" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M274" t="inlineStr">
         <is>
-          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
+          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N274" t="inlineStr">
         <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>3715589</t>
+          <t>6350020</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra</t>
+          <t>Karma Mini Cracker Sesam Leinsaat</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/buitoni-pizzateig-rund-extra/p/3715589</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E275" t="n">
         <v>4.5</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>1.17/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I275" t="inlineStr">
@@ -19927,7 +19929,7 @@
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K275" t="inlineStr">
@@ -19937,46 +19939,44 @@
       </c>
       <c r="L275" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M275" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig rund Extra 4.40 Schweizer Franken</t>
+          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N275" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>6350020</t>
+          <t>6986883</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat</t>
+          <t>Betty Bossi Strudelteig</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-mini-cracker-sesam-leinsaat/p/6350020</t>
-        </is>
-      </c>
-      <c r="D276" t="n">
-        <v>3</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/betty-bossi-strudelteig/p/6986883</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr"/>
       <c r="E276" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -19985,12 +19985,12 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.50</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.08/100g</t>
         </is>
       </c>
       <c r="I276" t="inlineStr">
@@ -20000,7 +20000,7 @@
       </c>
       <c r="J276" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="K276" t="inlineStr">
@@ -20010,22 +20010,22 @@
       </c>
       <c r="L276" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>Karma Mini Cracker Sesam Leinsaat 2.95 Schweizer Franken</t>
+          <t>Betty Bossi Strudelteig 2.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N276" t="inlineStr">
         <is>
-          <t>['vegan', 'vegetarian']</t>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
         </is>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20098,7 +20098,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20171,183 +20171,187 @@
       </c>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>4314837</t>
+          <t>5661142</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück</t>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E279" t="n">
         <v>4.5</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>Kale</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>7.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>4.39/1kg</t>
+          <t>2.68/100g</t>
         </is>
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>Preis pro 1 Kilogramm</t>
+          <t>Preis pro 100 Gramm</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>2.68</t>
         </is>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>1kg</t>
+          <t>100g</t>
         </is>
       </c>
       <c r="L279" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M279" t="inlineStr">
         <is>
-          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N279" t="inlineStr"/>
+          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>6313770</t>
+          <t>4314837</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales</t>
+          <t>Kale Dürüm 30cm 18 Stück</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/kale-dueruem-30cm-18-stueck/p/4314837</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E280" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Kale</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>7.50</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>4.39/1kg</t>
         </is>
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>Preis pro 100 Gramm</t>
+          <t>Preis pro 1 Kilogramm</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>4.39</t>
         </is>
       </c>
       <c r="K280" t="inlineStr">
         <is>
-          <t>100g</t>
+          <t>1kg</t>
         </is>
       </c>
       <c r="L280" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M280" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Milch Céréales 33% ab 3 Aktion 2.65 Schweizer Franken</t>
+          <t>Kale Dürüm 30cm 18 Stück 7.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N280" t="inlineStr"/>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>5661142</t>
+          <t>6313770</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa</t>
+          <t>Roland Petite Pause Milch Céréales</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-crunch-it-cracker-dinkel-quinoa/p/5661142</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-ohne-schokolade/weitere-guetzli/roland-petite-pause-milch-cereales/p/6313770</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="E281" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>2.68/100g</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="I281" t="inlineStr">
@@ -20357,7 +20361,7 @@
       </c>
       <c r="J281" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K281" t="inlineStr">
@@ -20367,22 +20371,18 @@
       </c>
       <c r="L281" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-ohne-schokolade', 'weitere-guetzli']</t>
         </is>
       </c>
       <c r="M281" t="inlineStr">
         <is>
-          <t>Karma Crunch It Cracker Dinkel &amp;amp; Quinoa 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N281" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Milch Céréales 33% ab 3 Aktion 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20451,7 +20451,7 @@
       <c r="N282" t="inlineStr"/>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20520,7 +20520,7 @@
       <c r="N283" t="inlineStr"/>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20587,7 +20587,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20660,7 +20660,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20729,7 +20729,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20802,7 +20802,7 @@
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20871,7 +20871,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -20944,7 +20944,7 @@
       </c>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21013,7 +21013,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21086,7 +21086,7 @@
       </c>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21159,7 +21159,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21232,7 +21232,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21301,7 +21301,7 @@
       <c r="N294" t="inlineStr"/>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21374,7 +21374,7 @@
       </c>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21443,7 +21443,7 @@
       <c r="N296" t="inlineStr"/>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21516,7 +21516,7 @@
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21589,28 +21589,28 @@
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>3378453</t>
+          <t>4265298</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Betty Bossi Lebkuchen-Teig</t>
+          <t>Naturaplan Bio Mini Haselnussrollen</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-lebkuchen-teig/p/3378453</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E299" t="n">
         <v>4.5</v>
@@ -21622,12 +21622,12 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>0.54/100g</t>
+          <t>1.50/100g</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
@@ -21637,7 +21637,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -21647,43 +21647,39 @@
       </c>
       <c r="L299" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M299" t="inlineStr">
         <is>
-          <t>Betty Bossi Lebkuchen-Teig 20% Aktion 2.70 Schweizer Franken statt 3.40 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N299" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N299" t="inlineStr"/>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>4265298</t>
+          <t>3378453</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen</t>
+          <t>Betty Bossi Lebkuchen-Teig</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-mini-haselnussrollen/p/4265298</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-lebkuchen-teig/p/3378453</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E300" t="n">
         <v>4.5</v>
@@ -21695,12 +21691,12 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>1.50/100g</t>
+          <t>0.54/100g</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
@@ -21710,7 +21706,7 @@
       </c>
       <c r="J300" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="K300" t="inlineStr">
@@ -21720,18 +21716,22 @@
       </c>
       <c r="L300" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M300" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Mini Haselnussrollen 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N300" t="inlineStr"/>
+          <t>Betty Bossi Lebkuchen-Teig 20% Aktion 2.70 Schweizer Franken statt 3.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21800,7 +21800,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21873,7 +21873,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -21946,7 +21946,7 @@
       </c>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22019,7 +22019,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22092,7 +22092,7 @@
       </c>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22234,7 +22234,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22303,45 +22303,45 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>4967195</t>
+          <t>4848822</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
         </is>
       </c>
       <c r="D309" t="n">
+        <v>33</v>
+      </c>
+      <c r="E309" t="n">
         <v>4</v>
       </c>
-      <c r="E309" t="n">
-        <v>4.5</v>
-      </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>Bonne Maman</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>3.14/100g</t>
+          <t>3.08/100g</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
@@ -22351,7 +22351,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>3.08</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -22361,56 +22361,56 @@
       </c>
       <c r="L309" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M309" t="inlineStr">
         <is>
-          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
+          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N309" t="inlineStr"/>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>4848822</t>
+          <t>5732888</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück</t>
+          <t>Schär Panini Rolls glutenfrei 3x75g</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-soft-tortillas-shells-8-stueck/p/4848822</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E310" t="n">
         <v>4</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>3.08/100g</t>
+          <t>1.76/100g</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
@@ -22420,7 +22420,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -22430,56 +22430,60 @@
       </c>
       <c r="L310" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M310" t="inlineStr">
         <is>
-          <t>Old El Paso Soft Tortillas Shells 8 Stück 20% ab 2 Aktion 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N310" t="inlineStr"/>
+          <t>Schär Panini Rolls glutenfrei 3x75g 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>['gluten_free', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>5732888</t>
+          <t>6313768</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g</t>
+          <t>Roland Petite Pause Choco Céréales</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/schaer-panini-rolls-glutenfrei-3x75g/p/5732888</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E311" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>1.76/100g</t>
+          <t>2.52/100g</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
@@ -22489,7 +22493,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>1.76</t>
+          <t>2.52</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -22499,60 +22503,56 @@
       </c>
       <c r="L311" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
         </is>
       </c>
       <c r="M311" t="inlineStr">
         <is>
-          <t>Schär Panini Rolls glutenfrei 3x75g 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N311" t="inlineStr">
-        <is>
-          <t>['gluten_free', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Roland Petite Pause Choco Céréales 33% ab 3 Aktion 2.65 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>6313768</t>
+          <t>4967195</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales</t>
+          <t>Bonne Maman Financier Mandeln</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/guetzli-mit-schokolade/schokolade-als-zutat/roland-petite-pause-choco-cereales/p/6313768</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bonne-maman-financier-mandeln/p/4967195</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E312" t="n">
         <v>4.5</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Bonne Maman</t>
         </is>
       </c>
       <c r="G312" t="inlineStr">
         <is>
-          <t>2.65</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>2.52/100g</t>
+          <t>3.14/100g</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
@@ -22562,7 +22562,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>2.52</t>
+          <t>3.14</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -22572,18 +22572,18 @@
       </c>
       <c r="L312" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'guetzli-mit-schokolade', 'schokolade-als-zutat']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M312" t="inlineStr">
         <is>
-          <t>Roland Petite Pause Choco Céréales 33% ab 3 Aktion 2.65 Schweizer Franken</t>
+          <t>Bonne Maman Financier Mandeln 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22652,7 +22652,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22725,7 +22725,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22794,7 +22794,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -22863,45 +22863,45 @@
       <c r="N316" t="inlineStr"/>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>6863658</t>
+          <t>6575244</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange</t>
+          <t>Old el Paso Fajita mix Gluten Free</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
         </is>
       </c>
       <c r="D317" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E317" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F317" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G317" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H317" t="inlineStr">
         <is>
-          <t>1.12/100g</t>
+          <t>5.33/100g</t>
         </is>
       </c>
       <c r="I317" t="inlineStr">
@@ -22911,7 +22911,7 @@
       </c>
       <c r="J317" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="K317" t="inlineStr">
@@ -22921,56 +22921,60 @@
       </c>
       <c r="L317" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M317" t="inlineStr">
         <is>
-          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N317" t="inlineStr"/>
+          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>6575244</t>
+          <t>6863658</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free</t>
+          <t>Country Cracker Thymian Stange</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-fajita-mix-gluten-free/p/6575244</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/country-cracker-thymian-stange/p/6863658</t>
         </is>
       </c>
       <c r="D318" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E318" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F318" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G318" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H318" t="inlineStr">
         <is>
-          <t>5.33/100g</t>
+          <t>1.12/100g</t>
         </is>
       </c>
       <c r="I318" t="inlineStr">
@@ -22980,7 +22984,7 @@
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="K318" t="inlineStr">
@@ -22990,22 +22994,18 @@
       </c>
       <c r="L318" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M318" t="inlineStr">
         <is>
-          <t>Old el Paso Fajita mix Gluten Free 20% ab 2 Aktion 1.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N318" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Country Cracker Thymian Stange 3.30 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N318" t="inlineStr"/>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23074,7 +23074,7 @@
       <c r="N319" t="inlineStr"/>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23143,7 +23143,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23212,7 +23212,7 @@
       <c r="N321" t="inlineStr"/>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23279,7 +23279,7 @@
       <c r="N322" t="inlineStr"/>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23352,7 +23352,7 @@
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23421,7 +23421,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23490,7 +23490,7 @@
       <c r="N325" t="inlineStr"/>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23559,7 +23559,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23632,7 +23632,7 @@
       </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23701,7 +23701,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23774,45 +23774,45 @@
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>6500790</t>
+          <t>6668612</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat</t>
+          <t>Prix Garantie Kuchenteig Block</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E330" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>St Michel</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G330" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>0.35/100g</t>
         </is>
       </c>
       <c r="I330" t="inlineStr">
@@ -23822,7 +23822,7 @@
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="K330" t="inlineStr">
@@ -23832,56 +23832,60 @@
       </c>
       <c r="L330" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
         </is>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>St.Michel Mini Brownies Chocolat - Online kein Bestand 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N330" t="inlineStr"/>
+          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>['chilled', 'vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>6668612</t>
+          <t>6500790</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block</t>
+          <t>St.Michel Mini Brownies Chocolat</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/kuchenteig/prix-garantie-kuchenteig-block/p/6668612</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/stmichel-mini-brownies-chocolat/p/6500790</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E331" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F331" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>St Michel</t>
         </is>
       </c>
       <c r="G331" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H331" t="inlineStr">
         <is>
-          <t>0.35/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I331" t="inlineStr">
@@ -23891,7 +23895,7 @@
       </c>
       <c r="J331" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K331" t="inlineStr">
@@ -23901,22 +23905,18 @@
       </c>
       <c r="L331" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'kuchenteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M331" t="inlineStr">
         <is>
-          <t>Prix Garantie Kuchenteig Block 1.75 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N331" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>St.Michel Mini Brownies Chocolat 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr"/>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -23989,7 +23989,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24058,7 +24058,7 @@
       <c r="N333" t="inlineStr"/>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24127,7 +24127,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24196,7 +24196,7 @@
       <c r="N335" t="inlineStr"/>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24269,7 +24269,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24338,7 +24338,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24411,7 +24411,7 @@
       </c>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24480,7 +24480,7 @@
       <c r="N339" t="inlineStr"/>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24553,7 +24553,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24620,7 +24620,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24689,7 +24689,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24762,7 +24762,7 @@
       </c>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24835,7 +24835,7 @@
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24904,7 +24904,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -24973,43 +24973,45 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>3003206</t>
+          <t>7059921</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Olo Haselnuss Lebkuchen</t>
+          <t>Roland Knäckebrot Linsen-Protein</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/olo-haselnuss-lebkuchen/p/3003206</t>
-        </is>
-      </c>
-      <c r="D347" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+        </is>
+      </c>
+      <c r="D347" t="n">
+        <v>1</v>
+      </c>
       <c r="E347" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Olo</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G347" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>2.19/100g</t>
         </is>
       </c>
       <c r="I347" t="inlineStr">
@@ -25019,7 +25021,7 @@
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="K347" t="inlineStr">
@@ -25029,56 +25031,58 @@
       </c>
       <c r="L347" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>Olo Haselnuss Lebkuchen 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N347" t="inlineStr"/>
+          <t>Roland Knäckebrot Linsen-Protein 33% ab 3 Aktion 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N347" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'lactose_free']</t>
+        </is>
+      </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>3845685</t>
+          <t>3003206</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot</t>
+          <t>Olo Haselnuss Lebkuchen</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
-        </is>
-      </c>
-      <c r="D348" t="n">
-        <v>38</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/olo-haselnuss-lebkuchen/p/3003206</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr"/>
       <c r="E348" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Olo</t>
         </is>
       </c>
       <c r="G348" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H348" t="inlineStr">
         <is>
-          <t>0.90/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I348" t="inlineStr">
@@ -25088,7 +25092,7 @@
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>0.90</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K348" t="inlineStr">
@@ -25098,56 +25102,56 @@
       </c>
       <c r="L348" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M348" t="inlineStr">
         <is>
-          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
+          <t>Olo Haselnuss Lebkuchen 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>4490655</t>
+          <t>3845685</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig</t>
+          <t>Slow Food Roggenbrot</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/slow-food-roggenbrot/p/3845685</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E349" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
-          <t>Brossard</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G349" t="inlineStr">
         <is>
-          <t>4.40</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H349" t="inlineStr">
         <is>
-          <t>1.26/100g</t>
+          <t>0.90/100g</t>
         </is>
       </c>
       <c r="I349" t="inlineStr">
@@ -25157,7 +25161,7 @@
       </c>
       <c r="J349" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.90</t>
         </is>
       </c>
       <c r="K349" t="inlineStr">
@@ -25167,18 +25171,18 @@
       </c>
       <c r="L349" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M349" t="inlineStr">
         <is>
-          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
+          <t>Slow Food Roggenbrot 4.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -25251,45 +25255,45 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>7059921</t>
+          <t>4490655</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein</t>
+          <t>Brossard Zwieback Honig</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/roland-knaeckebrot-linsen-protein/p/7059921</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/zwieback/brossard-zwieback-honig/p/4490655</t>
         </is>
       </c>
       <c r="D351" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E351" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F351" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Brossard</t>
         </is>
       </c>
       <c r="G351" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>4.40</t>
         </is>
       </c>
       <c r="H351" t="inlineStr">
         <is>
-          <t>2.19/100g</t>
+          <t>1.26/100g</t>
         </is>
       </c>
       <c r="I351" t="inlineStr">
@@ -25299,7 +25303,7 @@
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="K351" t="inlineStr">
@@ -25309,60 +25313,56 @@
       </c>
       <c r="L351" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'zwieback']</t>
         </is>
       </c>
       <c r="M351" t="inlineStr">
         <is>
-          <t>Roland Knäckebrot Linsen-Protein 33% ab 3 Aktion 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N351" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
+          <t>Brossard Zwieback Honig 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>6680943</t>
+          <t>4063481</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
         </is>
       </c>
       <c r="D352" t="n">
         <v>1</v>
       </c>
       <c r="E352" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F352" t="inlineStr">
         <is>
-          <t>Pasquier</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="G352" t="inlineStr">
         <is>
-          <t>4.30</t>
+          <t>3.40</t>
         </is>
       </c>
       <c r="H352" t="inlineStr">
         <is>
-          <t>1.23/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I352" t="inlineStr">
@@ -25372,7 +25372,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>1.23</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -25382,35 +25382,35 @@
       </c>
       <c r="L352" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M352" t="inlineStr">
         <is>
-          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
+          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
         </is>
       </c>
       <c r="N352" t="inlineStr"/>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>6413411</t>
+          <t>6680943</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Sapori Pandoro</t>
+          <t>Pasquier Pancakes Choco 10 Stück</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-pandoro/p/6413411</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pasquier-pancakes-choco-10-stueck/p/6680943</t>
         </is>
       </c>
       <c r="D353" t="n">
@@ -25421,17 +25421,17 @@
       </c>
       <c r="F353" t="inlineStr">
         <is>
-          <t>Sapori</t>
+          <t>Pasquier</t>
         </is>
       </c>
       <c r="G353" t="inlineStr">
         <is>
-          <t>14.50</t>
+          <t>4.30</t>
         </is>
       </c>
       <c r="H353" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.23/100g</t>
         </is>
       </c>
       <c r="I353" t="inlineStr">
@@ -25441,7 +25441,7 @@
       </c>
       <c r="J353" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="K353" t="inlineStr">
@@ -25456,51 +25456,51 @@
       </c>
       <c r="M353" t="inlineStr">
         <is>
-          <t>Sapori Pandoro 14.50 Schweizer Franken</t>
+          <t>Pasquier Pancakes Choco 10 Stück 4.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>4063481</t>
+          <t>6413411</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück</t>
+          <t>Sapori Pandoro</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/lu-prince-cake-choc-5-stueck/p/4063481</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-pandoro/p/6413411</t>
         </is>
       </c>
       <c r="D354" t="n">
         <v>1</v>
       </c>
       <c r="E354" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Sapori</t>
         </is>
       </c>
       <c r="G354" t="inlineStr">
         <is>
-          <t>3.40</t>
+          <t>14.50</t>
         </is>
       </c>
       <c r="H354" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I354" t="inlineStr">
@@ -25510,7 +25510,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -25520,56 +25520,56 @@
       </c>
       <c r="L354" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M354" t="inlineStr">
         <is>
-          <t>Lu Prince Cake &amp;amp; Choc 5 Stück 3.40 Schweizer Franken</t>
+          <t>Sapori Pandoro 14.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N354" t="inlineStr"/>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>6345853</t>
+          <t>5798822</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums</t>
+          <t>Betty Bossi Haselnussmakrönli Guetzliteig</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-haselnussmakroenli-guetzliteig/p/5798822</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E355" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>INDIAN DELIGHT</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G355" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>3.60/100g</t>
+          <t>0.70/100g</t>
         </is>
       </c>
       <c r="I355" t="inlineStr">
@@ -25579,7 +25579,7 @@
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="K355" t="inlineStr">
@@ -25589,56 +25589,60 @@
       </c>
       <c r="L355" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
         </is>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N355" t="inlineStr"/>
+          <t>Betty Bossi Haselnussmakrönli Guetzliteig 20% Aktion 3.50 Schweizer Franken statt 4.40 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N355" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>5798822</t>
+          <t>3570059</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Betty Bossi Haselnussmakrönli Guetzliteig</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/guetzliteig/betty-bossi-haselnussmakroenli-guetzliteig/p/5798822</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E356" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Croustipâte</t>
         </is>
       </c>
       <c r="G356" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.30</t>
         </is>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>0.70/100g</t>
+          <t>2.43/100g</t>
         </is>
       </c>
       <c r="I356" t="inlineStr">
@@ -25648,7 +25652,7 @@
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>0.70</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="K356" t="inlineStr">
@@ -25658,12 +25662,12 @@
       </c>
       <c r="L356" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'guetzliteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>Betty Bossi Haselnussmakrönli Guetzliteig 20% Aktion 3.50 Schweizer Franken statt 4.40 Schweizer Franken</t>
+          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="N356" t="inlineStr">
@@ -25673,45 +25677,43 @@
       </c>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>3570059</t>
+          <t>6610484</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück</t>
+          <t>Sapori PanettOne</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/croustipate-brick-teigblaetter-8-stueck/p/3570059</t>
-        </is>
-      </c>
-      <c r="D357" t="n">
-        <v>5</v>
-      </c>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr"/>
       <c r="E357" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F357" t="inlineStr">
         <is>
-          <t>Croustipâte</t>
+          <t>Sapori d'Italia</t>
         </is>
       </c>
       <c r="G357" t="inlineStr">
         <is>
-          <t>3.30</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H357" t="inlineStr">
         <is>
-          <t>2.43/100g</t>
+          <t>2.95/100g</t>
         </is>
       </c>
       <c r="I357" t="inlineStr">
@@ -25721,7 +25723,7 @@
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="K357" t="inlineStr">
@@ -25731,58 +25733,56 @@
       </c>
       <c r="L357" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M357" t="inlineStr">
         <is>
-          <t>Croustipâte Brick-Teigblätter 8 Stück 3.30 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N357" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N357" t="inlineStr"/>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>6610484</t>
+          <t>6345853</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Sapori PanettOne</t>
+          <t>Indian Delight Pappadums</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/sapori-panettone/p/6610484</t>
-        </is>
-      </c>
-      <c r="D358" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/lang-haltbare-brote/indian-delight-pappadums/p/6345853</t>
+        </is>
+      </c>
+      <c r="D358" t="n">
+        <v>6</v>
+      </c>
       <c r="E358" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F358" t="inlineStr">
         <is>
-          <t>Sapori d'Italia</t>
+          <t>INDIAN DELIGHT</t>
         </is>
       </c>
       <c r="G358" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H358" t="inlineStr">
         <is>
-          <t>2.95/100g</t>
+          <t>3.60/100g</t>
         </is>
       </c>
       <c r="I358" t="inlineStr">
@@ -25792,7 +25792,7 @@
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="K358" t="inlineStr">
@@ -25802,18 +25802,18 @@
       </c>
       <c r="L358" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'lang-haltbare-brote']</t>
         </is>
       </c>
       <c r="M358" t="inlineStr">
         <is>
-          <t>Sapori PanettOne 2.95 Schweizer Franken</t>
+          <t>Indian Delight Pappadums 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N358" t="inlineStr"/>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -25882,45 +25882,45 @@
       <c r="N359" t="inlineStr"/>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>6775942</t>
+          <t>6828459</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit</t>
+          <t>Aprikosenweggli</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
         </is>
       </c>
       <c r="D360" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E360" t="n">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G360" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="H360" t="inlineStr">
         <is>
-          <t>1.88/100g</t>
+          <t>1.83/100g</t>
         </is>
       </c>
       <c r="I360" t="inlineStr">
@@ -25930,7 +25930,7 @@
       </c>
       <c r="J360" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="K360" t="inlineStr">
@@ -25940,56 +25940,56 @@
       </c>
       <c r="L360" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M360" t="inlineStr">
         <is>
-          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N360" t="inlineStr"/>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>6828459</t>
+          <t>4092628</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Aprikosenweggli</t>
+          <t>Schär Frischback Mini-Baguette 2x75g</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/aprikosenweggli/p/6828459</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
         </is>
       </c>
       <c r="D361" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E361" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F361" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Schär</t>
         </is>
       </c>
       <c r="G361" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>1.83/100g</t>
+          <t>1.97/100g</t>
         </is>
       </c>
       <c r="I361" t="inlineStr">
@@ -25999,7 +25999,7 @@
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>1.83</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="K361" t="inlineStr">
@@ -26009,56 +26009,56 @@
       </c>
       <c r="L361" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M361" t="inlineStr">
         <is>
-          <t>Aprikosenweggli 5.50 Schweizer Franken</t>
+          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>4092628</t>
+          <t>6775942</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schaer-frischback-mini-baguette-2x75g/p/4092628</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-chicken-shawarma-wrap-kit/p/6775942</t>
         </is>
       </c>
       <c r="D362" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E362" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F362" t="inlineStr">
         <is>
-          <t>Schär</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G362" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H362" t="inlineStr">
         <is>
-          <t>1.97/100g</t>
+          <t>1.88/100g</t>
         </is>
       </c>
       <c r="I362" t="inlineStr">
@@ -26068,7 +26068,7 @@
       </c>
       <c r="J362" t="inlineStr">
         <is>
-          <t>1.97</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="K362" t="inlineStr">
@@ -26078,18 +26078,18 @@
       </c>
       <c r="L362" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M362" t="inlineStr">
         <is>
-          <t>Schär Frischback Mini-Baguette 2x75g 2.95 Schweizer Franken</t>
+          <t>Mezeast Chicken Shawarma Wrap Kit 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -26158,7 +26158,7 @@
       <c r="N363" t="inlineStr"/>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -26227,43 +26227,45 @@
       <c r="N364" t="inlineStr"/>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>7038624</t>
+          <t>5824672</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
-        </is>
-      </c>
-      <c r="D365" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+        </is>
+      </c>
+      <c r="D365" t="n">
+        <v>9</v>
+      </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="F365" t="inlineStr">
         <is>
-          <t>RIDUTO</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G365" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>4.20</t>
         </is>
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2.27/100g</t>
+          <t>2.63/100g</t>
         </is>
       </c>
       <c r="I365" t="inlineStr">
@@ -26273,7 +26275,7 @@
       </c>
       <c r="J365" t="inlineStr">
         <is>
-          <t>2.27</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="K365" t="inlineStr">
@@ -26283,42 +26285,42 @@
       </c>
       <c r="L365" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M365" t="inlineStr">
         <is>
-          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
         </is>
       </c>
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>5824672</t>
+          <t>6109575</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g</t>
+          <t>Naturaplan Bio Linzertorte mit Herz</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/rob-lissy-brownie/p/5824672</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
         </is>
       </c>
       <c r="D366" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E366" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F366" t="inlineStr">
         <is>
@@ -26327,12 +26329,12 @@
       </c>
       <c r="G366" t="inlineStr">
         <is>
-          <t>4.20</t>
+          <t>8.50</t>
         </is>
       </c>
       <c r="H366" t="inlineStr">
         <is>
-          <t>2.63/100g</t>
+          <t>2.66/100g</t>
         </is>
       </c>
       <c r="I366" t="inlineStr">
@@ -26342,7 +26344,7 @@
       </c>
       <c r="J366" t="inlineStr">
         <is>
-          <t>2.63</t>
+          <t>2.66</t>
         </is>
       </c>
       <c r="K366" t="inlineStr">
@@ -26357,37 +26359,37 @@
       </c>
       <c r="M366" t="inlineStr">
         <is>
-          <t>Rob &amp;amp; Lissy Brownie 2x  80g 4.20 Schweizer Franken</t>
+          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>6109575</t>
+          <t>6798601</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz</t>
+          <t>Naturaplan Bio Haselnussrollen 4x60g</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-linzertorte-mit-herz/p/6109575</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-4x60g/p/6798601</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E367" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F367" t="inlineStr">
         <is>
@@ -26396,12 +26398,12 @@
       </c>
       <c r="G367" t="inlineStr">
         <is>
-          <t>8.50</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="H367" t="inlineStr">
         <is>
-          <t>2.66/100g</t>
+          <t>1.71/100g</t>
         </is>
       </c>
       <c r="I367" t="inlineStr">
@@ -26411,7 +26413,7 @@
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>2.66</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="K367" t="inlineStr">
@@ -26426,51 +26428,51 @@
       </c>
       <c r="M367" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Linzertorte mit Herz 8.50 Schweizer Franken</t>
+          <t>Naturaplan Bio Haselnussrollen 4x60g 4.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="N367" t="inlineStr"/>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>6798601</t>
+          <t>5962343</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 4x60g</t>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-haselnussrollen-4x60g/p/6798601</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E368" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F368" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Veganz</t>
         </is>
       </c>
       <c r="G368" t="inlineStr">
         <is>
-          <t>4.10</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="H368" t="inlineStr">
         <is>
-          <t>1.71/100g</t>
+          <t>5.48/100g</t>
         </is>
       </c>
       <c r="I368" t="inlineStr">
@@ -26480,7 +26482,7 @@
       </c>
       <c r="J368" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>5.48</t>
         </is>
       </c>
       <c r="K368" t="inlineStr">
@@ -26495,41 +26497,43 @@
       </c>
       <c r="M368" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Haselnussrollen 4x60g 4.10 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N368" t="inlineStr"/>
+          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N368" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>6980179</t>
+          <t>7038624</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth</t>
+          <t>Riduto Crisp Bread Rande</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
-        </is>
-      </c>
-      <c r="D369" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/riduto-crisp-bread-rande/p/7038624</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr"/>
       <c r="E369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F369" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>RIDUTO</t>
         </is>
       </c>
       <c r="G369" t="inlineStr">
@@ -26539,7 +26543,7 @@
       </c>
       <c r="H369" t="inlineStr">
         <is>
-          <t>3.47/100g</t>
+          <t>2.27/100g</t>
         </is>
       </c>
       <c r="I369" t="inlineStr">
@@ -26549,7 +26553,7 @@
       </c>
       <c r="J369" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="K369" t="inlineStr">
@@ -26559,60 +26563,56 @@
       </c>
       <c r="L369" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M369" t="inlineStr">
         <is>
-          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N369" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Riduto Crisp Bread Rande 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>5962343</t>
+          <t>3040214</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g</t>
+          <t>Bündner Nusstorte</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/veganz-bliss-ball-coconut-42g/p/5962343</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E370" t="n">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F370" t="inlineStr">
         <is>
-          <t>Veganz</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G370" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H370" t="inlineStr">
         <is>
-          <t>5.48/100g</t>
+          <t>1.70/100g</t>
         </is>
       </c>
       <c r="I370" t="inlineStr">
@@ -26622,7 +26622,7 @@
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="K370" t="inlineStr">
@@ -26637,55 +26637,51 @@
       </c>
       <c r="M370" t="inlineStr">
         <is>
-          <t>Veganz Bliss Ball Coconut 42G 3x  42g 6.90 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N370" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N370" t="inlineStr"/>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>3040214</t>
+          <t>6989654</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte</t>
+          <t>Bauckhof Brownies Backmischung</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/buendner-nusstorte/p/3040214</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
         </is>
       </c>
       <c r="D371" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E371" t="n">
         <v>3</v>
       </c>
       <c r="F371" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bauckhof</t>
         </is>
       </c>
       <c r="G371" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>4.50</t>
         </is>
       </c>
       <c r="H371" t="inlineStr">
         <is>
-          <t>1.70/100g</t>
+          <t>1.13/100g</t>
         </is>
       </c>
       <c r="I371" t="inlineStr">
@@ -26695,7 +26691,7 @@
       </c>
       <c r="J371" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="K371" t="inlineStr">
@@ -26710,51 +26706,55 @@
       </c>
       <c r="M371" t="inlineStr">
         <is>
-          <t>Bündner Nusstorte 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N371" t="inlineStr"/>
+          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N371" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>6989654</t>
+          <t>6980179</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung</t>
+          <t>Karma Saaten Cracker Amaranth</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/bauckhof-brownies-backmischung/p/6989654</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/karma-saaten-cracker-amaranth/p/6980179</t>
         </is>
       </c>
       <c r="D372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E372" t="n">
         <v>3</v>
       </c>
       <c r="F372" t="inlineStr">
         <is>
-          <t>Bauckhof</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G372" t="inlineStr">
         <is>
-          <t>4.50</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H372" t="inlineStr">
         <is>
-          <t>1.13/100g</t>
+          <t>3.47/100g</t>
         </is>
       </c>
       <c r="I372" t="inlineStr">
@@ -26764,7 +26764,7 @@
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="K372" t="inlineStr">
@@ -26774,12 +26774,12 @@
       </c>
       <c r="L372" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M372" t="inlineStr">
         <is>
-          <t>Bauckhof Brownies Backmischung 4.50 Schweizer Franken</t>
+          <t>Karma Saaten Cracker Amaranth 2.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N372" t="inlineStr">
@@ -26789,7 +26789,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -26858,7 +26858,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -26927,7 +26927,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -26996,7 +26996,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27069,7 +27069,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27138,7 +27138,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27209,7 +27209,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27282,7 +27282,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27351,7 +27351,7 @@
       <c r="N380" t="inlineStr"/>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27418,7 +27418,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27485,7 +27485,7 @@
       <c r="N382" t="inlineStr"/>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27554,7 +27554,7 @@
       <c r="N383" t="inlineStr"/>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27627,7 +27627,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
@@ -27700,45 +27700,45 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>6688909</t>
+          <t>7069611</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Hanuta Brownies 10 Stück</t>
+          <t>Cocktail Blinis 20 Stück</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/hanuta-brownies-10-stueck/p/6688909</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
         </is>
       </c>
       <c r="D386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E386" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>Hanuta</t>
+          <t>Blini</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1.25/100g</t>
+          <t>3.54/100g</t>
         </is>
       </c>
       <c r="I386" t="inlineStr">
@@ -27748,7 +27748,7 @@
       </c>
       <c r="J386" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="K386" t="inlineStr">
@@ -27758,56 +27758,60 @@
       </c>
       <c r="L386" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M386" t="inlineStr">
         <is>
-          <t>Hanuta Brownies 10 Stück 14% Aktion 2.75 Schweizer Franken statt 3.20 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N386" t="inlineStr"/>
+          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N386" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>7069611</t>
+          <t>6151960</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück</t>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/cocktail-blinis-20-stueck/p/7069611</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
         </is>
       </c>
       <c r="D387" t="n">
         <v>1</v>
       </c>
       <c r="E387" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>Blini</t>
+          <t>Schnitzer</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>6.70</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>3.54/100g</t>
+          <t>2.09/100g</t>
         </is>
       </c>
       <c r="I387" t="inlineStr">
@@ -27817,7 +27821,7 @@
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>3.54</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="K387" t="inlineStr">
@@ -27827,60 +27831,54 @@
       </c>
       <c r="L387" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
         </is>
       </c>
       <c r="M387" t="inlineStr">
         <is>
-          <t>Cocktail Blinis 20 Stück 5.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N387" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N387" t="inlineStr"/>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>6151960</t>
+          <t>6783372</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei</t>
+          <t>Old el Paso BBQ Pocket Kit</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/frischback-brot/schnitzer-bio-rustico-und-amaranth-glutenfrei/p/6151960</t>
-        </is>
-      </c>
-      <c r="D388" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr"/>
       <c r="E388" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>Schnitzer</t>
+          <t>Old el Paso</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>6.70</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>2.09/100g</t>
+          <t>2.03/100g</t>
         </is>
       </c>
       <c r="I388" t="inlineStr">
@@ -27890,7 +27888,7 @@
       </c>
       <c r="J388" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="K388" t="inlineStr">
@@ -27900,54 +27898,60 @@
       </c>
       <c r="L388" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'frischback-brot']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M388" t="inlineStr">
         <is>
-          <t>Schnitzer Bio Rustico und Amaranth glutenfrei 6.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N388" t="inlineStr"/>
+          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N388" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>6783372</t>
+          <t>4144505</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit</t>
+          <t>Pandorino</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/old-el-paso-bbq-pocket-kit/p/6783372</t>
-        </is>
-      </c>
-      <c r="D389" t="inlineStr"/>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+        </is>
+      </c>
+      <c r="D389" t="n">
+        <v>13</v>
+      </c>
       <c r="E389" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>Old el Paso</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>2.03/100g</t>
+          <t>1.78/100g</t>
         </is>
       </c>
       <c r="I389" t="inlineStr">
@@ -27957,7 +27961,7 @@
       </c>
       <c r="J389" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="K389" t="inlineStr">
@@ -27967,60 +27971,56 @@
       </c>
       <c r="L389" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M389" t="inlineStr">
         <is>
-          <t>Old el Paso BBQ Pocket Kit 20% ab 2 Aktion 7.70 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N389" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N389" t="inlineStr"/>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>4144505</t>
+          <t>3040290</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Pandorino</t>
+          <t>Heumann Mazzen-Schnitten Koscher</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/pandorino/p/4144505</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
         </is>
       </c>
       <c r="D390" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E390" t="n">
         <v>5</v>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Heumann</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>7.25</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1.78/100g</t>
+          <t>1.61/100g</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
@@ -28030,7 +28030,7 @@
       </c>
       <c r="J390" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="K390" t="inlineStr">
@@ -28040,56 +28040,56 @@
       </c>
       <c r="L390" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M390" t="inlineStr">
         <is>
-          <t>Pandorino 20% pro 3 Aktion 1.60 Schweizer Franken</t>
+          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>3040290</t>
+          <t>6609039</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher</t>
+          <t>Vergani Panettone vegan</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/heumann-mazzen-schnitten-koscher/p/3040290</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
         </is>
       </c>
       <c r="D391" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E391" t="n">
         <v>5</v>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>Heumann</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>7.25</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1.61/100g</t>
+          <t>2.13/100g</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
@@ -28099,7 +28099,7 @@
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="K391" t="inlineStr">
@@ -28109,56 +28109,60 @@
       </c>
       <c r="L391" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M391" t="inlineStr">
         <is>
-          <t>Heumann Mazzen-Schnitten Koscher 7.25 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N391" t="inlineStr"/>
+          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N391" t="inlineStr">
+        <is>
+          <t>['vegan', 'vegetarian']</t>
+        </is>
+      </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>6609039</t>
+          <t>6775928</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan</t>
+          <t>Mezeast Falafel Wrap Kit</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-vegan/p/6609039</t>
+          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
         </is>
       </c>
       <c r="D392" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E392" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>MEZEAST</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>2.13/100g</t>
+          <t>1.65/100g</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
@@ -28168,7 +28172,7 @@
       </c>
       <c r="J392" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="K392" t="inlineStr">
@@ -28178,50 +28182,46 @@
       </c>
       <c r="L392" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
         </is>
       </c>
       <c r="M392" t="inlineStr">
         <is>
-          <t>Vergani Panettone vegan 15.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N392" t="inlineStr">
-        <is>
-          <t>['vegan', 'vegetarian']</t>
-        </is>
-      </c>
+          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N392" t="inlineStr"/>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>6775928</t>
+          <t>3040820</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit</t>
+          <t>Panettone Nostrano</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/haltbare-brote/fladenbrote-tortillas/mezeast-falafel-wrap-kit/p/6775928</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone-nostrano/p/3040820</t>
         </is>
       </c>
       <c r="D393" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E393" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>MEZEAST</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
@@ -28231,7 +28231,7 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1.65/100g</t>
+          <t>1.39/100g</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
@@ -28241,7 +28241,7 @@
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="K393" t="inlineStr">
@@ -28251,56 +28251,56 @@
       </c>
       <c r="L393" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'haltbare-brote', 'fladenbrote-tortillas']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M393" t="inlineStr">
         <is>
-          <t>Mezeast Falafel Wrap Kit 6.95 Schweizer Franken</t>
+          <t>Panettone Nostrano 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N393" t="inlineStr"/>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>3040820</t>
+          <t>6472912</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Panettone Nostrano</t>
+          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/panettone-nostrano/p/3040820</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
         </is>
       </c>
       <c r="D394" t="n">
+        <v>1</v>
+      </c>
+      <c r="E394" t="n">
         <v>5</v>
       </c>
-      <c r="E394" t="n">
-        <v>2</v>
-      </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Bischofberger</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>1.39/100g</t>
+          <t>2.58/100g</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
@@ -28310,7 +28310,7 @@
       </c>
       <c r="J394" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="K394" t="inlineStr">
@@ -28320,56 +28320,58 @@
       </c>
       <c r="L394" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M394" t="inlineStr">
         <is>
-          <t>Panettone Nostrano 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N394" t="inlineStr"/>
+          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N394" t="inlineStr">
+        <is>
+          <t>['vegetarian']</t>
+        </is>
+      </c>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>6472912</t>
+          <t>5958920</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber</t>
+          <t>Fine Food Engadinertorte</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/naturaplan-bio-appenzeller-baerli-biber/p/6472912</t>
-        </is>
-      </c>
-      <c r="D395" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-engadinertorte/p/5958920</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr"/>
       <c r="E395" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>Bischofberger</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>2.58/100g</t>
+          <t>3.73/100g</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
@@ -28379,7 +28381,7 @@
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>2.58</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="K395" t="inlineStr">
@@ -28394,53 +28396,55 @@
       </c>
       <c r="M395" t="inlineStr">
         <is>
-          <t>Naturaplan Bio Appenzeller Bärli Biber 1.60 Schweizer Franken</t>
+          <t>Fine Food Engadinertorte 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N395" t="inlineStr">
         <is>
-          <t>['vegetarian']</t>
+          <t>['chilled']</t>
         </is>
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>5958920</t>
+          <t>6729401</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Fine Food Engadinertorte</t>
+          <t>Roland Cracker Sport Plus Nature</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/fine-food-engadinertorte/p/5958920</t>
-        </is>
-      </c>
-      <c r="D396" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-cracker-sport-plus-nature/p/6729401</t>
+        </is>
+      </c>
+      <c r="D396" t="n">
+        <v>3</v>
+      </c>
       <c r="E396" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Roland</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>4.60</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>3.73/100g</t>
+          <t>3.07/100g</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
@@ -28450,7 +28454,7 @@
       </c>
       <c r="J396" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="K396" t="inlineStr">
@@ -28460,60 +28464,56 @@
       </c>
       <c r="L396" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M396" t="inlineStr">
         <is>
-          <t>Fine Food Engadinertorte 11.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N396" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>Roland Cracker Sport Plus Nature 33% ab 3 Aktion 4.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N396" t="inlineStr"/>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>6729401</t>
+          <t>3040524</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport Plus Nature</t>
+          <t>Dahli Christstollen</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/roland-cracker-sport-plus-nature/p/6729401</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-christstollen/p/3040524</t>
         </is>
       </c>
       <c r="D397" t="n">
         <v>3</v>
       </c>
       <c r="E397" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>Roland</t>
+          <t>Dahli</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>4.60</t>
+          <t>6.95</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>3.07/100g</t>
+          <t>0.93/100g</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
@@ -28523,7 +28523,7 @@
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="K397" t="inlineStr">
@@ -28533,56 +28533,56 @@
       </c>
       <c r="L397" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M397" t="inlineStr">
         <is>
-          <t>Roland Cracker Sport Plus Nature 33% ab 3 Aktion 4.60 Schweizer Franken</t>
+          <t>Dahli Christstollen 6.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>3040524</t>
+          <t>7013464</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Dahli Christstollen</t>
+          <t>Betty Bossi Fussballteig</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/dahli-christstollen/p/3040524</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-fussballteig/p/7013464</t>
         </is>
       </c>
       <c r="D398" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E398" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>Dahli</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>6.95</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>0.93/100g</t>
+          <t>0.63/100g</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
@@ -28592,7 +28592,7 @@
       </c>
       <c r="J398" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="K398" t="inlineStr">
@@ -28602,56 +28602,58 @@
       </c>
       <c r="L398" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M398" t="inlineStr">
         <is>
-          <t>Dahli Christstollen 6.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N398" t="inlineStr"/>
+          <t>Betty Bossi Fussballteig 20% Aktion 3.15 Schweizer Franken statt 3.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N398" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>7013464</t>
+          <t>7091314</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Betty Bossi Fussballteig</t>
+          <t>High Protein Cräcker BBQ</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/betty-bossi-fussballteig/p/7013464</t>
-        </is>
-      </c>
-      <c r="D399" t="n">
-        <v>1</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr"/>
       <c r="E399" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Layenberger</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>3.60</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>0.63/100g</t>
+          <t>4.80/100g</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
@@ -28661,7 +28663,7 @@
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>4.80</t>
         </is>
       </c>
       <c r="K399" t="inlineStr">
@@ -28671,44 +28673,42 @@
       </c>
       <c r="L399" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
         </is>
       </c>
       <c r="M399" t="inlineStr">
         <is>
-          <t>Betty Bossi Fussballteig 20% Aktion 3.15 Schweizer Franken statt 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N399" t="inlineStr">
-        <is>
-          <t>['chilled']</t>
-        </is>
-      </c>
+          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N399" t="inlineStr"/>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>7091314</t>
+          <t>7091313</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-bbq/p/7091314</t>
-        </is>
-      </c>
-      <c r="D400" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+        </is>
+      </c>
+      <c r="D400" t="n">
+        <v>1</v>
+      </c>
       <c r="E400" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F400" t="inlineStr">
         <is>
@@ -28747,51 +28747,51 @@
       </c>
       <c r="M400" t="inlineStr">
         <is>
-          <t>High Protein Cräcker BBQ 3.60 Schweizer Franken</t>
+          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="N400" t="inlineStr"/>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>7091313</t>
+          <t>3152823</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion</t>
+          <t>Osem Crackers Vollkorn Koscher</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/gewuerzt/high-protein-craecker-cheese-onion/p/7091313</t>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
         </is>
       </c>
       <c r="D401" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E401" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>Layenberger</t>
+          <t>Osem</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>3.60</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>4.80/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
@@ -28801,7 +28801,7 @@
       </c>
       <c r="J401" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K401" t="inlineStr">
@@ -28811,56 +28811,56 @@
       </c>
       <c r="L401" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'gewuerzt']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
         </is>
       </c>
       <c r="M401" t="inlineStr">
         <is>
-          <t>High Protein Cräcker Cheese &amp;amp; Onion 3.60 Schweizer Franken</t>
+          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>3152823</t>
+          <t>5841675</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher</t>
+          <t>Free From Biberli</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/cracker/nature/osem-crackers-vollkorn-koscher/p/3152823</t>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/free-from-biberli/p/5841675</t>
         </is>
       </c>
       <c r="D402" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E402" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>Osem</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>5.36/100g</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
@@ -28870,7 +28870,7 @@
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="K402" t="inlineStr">
@@ -28880,56 +28880,58 @@
       </c>
       <c r="L402" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'cracker', 'nature']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M402" t="inlineStr">
         <is>
-          <t>Osem Crackers Vollkorn Koscher 3.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N402" t="inlineStr"/>
+          <t>Free From Biberli 2.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N402" t="inlineStr">
+        <is>
+          <t>['gluten_free']</t>
+        </is>
+      </c>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>5841675</t>
+          <t>3575044</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Free From Biberli</t>
+          <t>Holyland Matzen Koscher</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/free-from-biberli/p/5841675</t>
-        </is>
-      </c>
-      <c r="D403" t="n">
-        <v>11</v>
-      </c>
+          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr"/>
       <c r="E403" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Telma</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>7.90</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>5.36/100g</t>
+          <t>1.98/100g</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
@@ -28939,7 +28941,7 @@
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="K403" t="inlineStr">
@@ -28949,58 +28951,56 @@
       </c>
       <c r="L403" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
         </is>
       </c>
       <c r="M403" t="inlineStr">
         <is>
-          <t>Free From Biberli 2.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N403" t="inlineStr">
-        <is>
-          <t>['gluten_free']</t>
-        </is>
-      </c>
+          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>3575044</t>
+          <t>4529608</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher</t>
+          <t>Biberli Konfekt</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/cracker-knaeckebrot/knaeckebrot-pancroc/holyland-matzen-koscher/p/3575044</t>
-        </is>
-      </c>
-      <c r="D404" t="inlineStr"/>
+          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biberli-konfekt/p/4529608</t>
+        </is>
+      </c>
+      <c r="D404" t="n">
+        <v>1</v>
+      </c>
       <c r="E404" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>Telma</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>7.90</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>1.98/100g</t>
+          <t>2.06/100g</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
@@ -29010,7 +29010,7 @@
       </c>
       <c r="J404" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="K404" t="inlineStr">
@@ -29020,46 +29020,46 @@
       </c>
       <c r="L404" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'cracker-knaeckebrot', 'knaeckebrot-pancroc']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
         </is>
       </c>
       <c r="M404" t="inlineStr">
         <is>
-          <t>Holyland Matzen Koscher 7.90 Schweizer Franken</t>
+          <t>Biberli Konfekt 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N404" t="inlineStr"/>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>4529608</t>
+          <t>5722124</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Biberli Konfekt</t>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/kuchen-suessgebaeck/kuchen-toertchen/biberli-konfekt/p/4529608</t>
+          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
         </is>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="E405" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Buitoni</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
@@ -29069,7 +29069,7 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>2.06/100g</t>
+          <t>1.90/100g</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
@@ -29079,7 +29079,7 @@
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="K405" t="inlineStr">
@@ -29089,56 +29089,60 @@
       </c>
       <c r="L405" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'kuchen-suessgebaeck', 'kuchen-toertchen']</t>
+          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
         </is>
       </c>
       <c r="M405" t="inlineStr">
         <is>
-          <t>Biberli Konfekt 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N405" t="inlineStr"/>
+          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N405" t="inlineStr">
+        <is>
+          <t>['chilled', 'gluten_free']</t>
+        </is>
+      </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>5722124</t>
+          <t>6757196</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm</t>
+          <t>Vergani Panettone Glutenfrei</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/ernaehrung/vegetarisch/buitoni-pizzateig-glutenfrei-ohne-lactose-rund-ausgewallt-25cm/p/5722124</t>
+          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
         </is>
       </c>
       <c r="D406" t="n">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E406" t="n">
         <v>3.5</v>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>Buitoni</t>
+          <t>Vergani</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>1.90/100g</t>
+          <t>2.49/100g</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
@@ -29148,7 +29152,7 @@
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="K406" t="inlineStr">
@@ -29158,60 +29162,56 @@
       </c>
       <c r="L406" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'ernaehrung', 'vegetarisch']</t>
+          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
         </is>
       </c>
       <c r="M406" t="inlineStr">
         <is>
-          <t>Buitoni Pizzateig Glutenfrei &amp;amp; Ohne Lactose Rund Ausgewallt Ø25cm - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N406" t="inlineStr">
-        <is>
-          <t>['chilled', 'gluten_free']</t>
-        </is>
-      </c>
+          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>6757196</t>
+          <t>5804223</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei</t>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/suesses-snacks/guetzli-suessgebaeck/suesse-broetchen-panettone/vergani-panettone-glutenfrei/p/6757196</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
         </is>
       </c>
       <c r="D407" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E407" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>Vergani</t>
+          <t>Leisi</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>2.49/100g</t>
+          <t>1.77/100g</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
@@ -29221,7 +29221,7 @@
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>1.77</t>
         </is>
       </c>
       <c r="K407" t="inlineStr">
@@ -29231,42 +29231,46 @@
       </c>
       <c r="L407" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'suesses-snacks', 'guetzli-suessgebaeck', 'suesse-broetchen-panettone']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
         </is>
       </c>
       <c r="M407" t="inlineStr">
         <is>
-          <t>Vergani Panettone Glutenfrei 14.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N407" t="inlineStr"/>
+          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
+        </is>
+      </c>
+      <c r="N407" t="inlineStr">
+        <is>
+          <t>['chilled']</t>
+        </is>
+      </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>5804223</t>
+          <t>5722126</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/blaetterteig/leisi-blaetterteig-glutenfrei-rund-ausgewallt-32cm/p/5804223</t>
+          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
         </is>
       </c>
       <c r="D408" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E408" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="F408" t="inlineStr">
         <is>
@@ -29280,7 +29284,7 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>1.77/100g</t>
+          <t>2.15/100g</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
@@ -29290,7 +29294,7 @@
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="K408" t="inlineStr">
@@ -29300,95 +29304,22 @@
       </c>
       <c r="L408" t="inlineStr">
         <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden', 'blaetterteig']</t>
+          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
         </is>
       </c>
       <c r="M408" t="inlineStr">
         <is>
-          <t>Leisi Blätterteig glutenfrei rund ausgewallt Ø32cm - Online kein Bestand 4.95 Schweizer Franken</t>
+          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="N408" t="inlineStr">
         <is>
-          <t>['chilled']</t>
+          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
         </is>
       </c>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2022-11-30 14:57:41</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>5722126</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei</t>
-        </is>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>/de/lebensmittel/brot-backwaren/teig-tortenboden/leisi-kuchenteig-rund-ausgewallt-32cm-glutenfrei/p/5722126</t>
-        </is>
-      </c>
-      <c r="D409" t="n">
-        <v>26</v>
-      </c>
-      <c r="E409" t="n">
-        <v>5</v>
-      </c>
-      <c r="F409" t="inlineStr">
-        <is>
-          <t>Leisi</t>
-        </is>
-      </c>
-      <c r="G409" t="inlineStr">
-        <is>
-          <t>4.95</t>
-        </is>
-      </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2.15/100g</t>
-        </is>
-      </c>
-      <c r="I409" t="inlineStr">
-        <is>
-          <t>Preis pro 100 Gramm</t>
-        </is>
-      </c>
-      <c r="J409" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>100g</t>
-        </is>
-      </c>
-      <c r="L409" t="inlineStr">
-        <is>
-          <t>['lebensmittel', 'brot-backwaren', 'teig-tortenboden']</t>
-        </is>
-      </c>
-      <c r="M409" t="inlineStr">
-        <is>
-          <t>Leisi Kuchenteig rund ausgewallt Ø32cm glutenfrei - Online kein Bestand 4.95 Schweizer Franken</t>
-        </is>
-      </c>
-      <c r="N409" t="inlineStr">
-        <is>
-          <t>['chilled', 'vegan', 'vegetarian', 'lactose_free']</t>
-        </is>
-      </c>
-      <c r="O409" t="inlineStr">
-        <is>
-          <t>2022-11-30 14:57:41</t>
+          <t>2022-11-30 20:47:12</t>
         </is>
       </c>
     </row>
